--- a/examples/OregonNd/model_config.OregonNd.parameter_template.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.parameter_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>class</t>
   </si>
@@ -45,6 +45,9 @@
     <t>comment</t>
   </si>
   <si>
+    <t>include</t>
+  </si>
+  <si>
     <t>global</t>
   </si>
   <si>
@@ -123,7 +126,7 @@
     <t>phi</t>
   </si>
   <si>
-    <t>dimentionless</t>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
@@ -153,6 +156,9 @@
     <t>Dbt</t>
   </si>
   <si>
+    <t>cm^2/yr</t>
+  </si>
+  <si>
     <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>Dbir</t>
   </si>
   <si>
+    <t>yr^-1</t>
+  </si>
+  <si>
     <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
@@ -201,21 +210,117 @@
     <t>thickness of the diffusive boundary layer</t>
   </si>
   <si>
+    <t>FMnO20</t>
+  </si>
+  <si>
+    <t>mmol cm^-2 yr^-1</t>
+  </si>
+  <si>
+    <t>Flux of MnO2 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FFeOOH0</t>
+  </si>
+  <si>
+    <t>Flux of FeOOH at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FPOC0</t>
+  </si>
+  <si>
+    <t>Flux of POC at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FFeS0</t>
+  </si>
+  <si>
+    <t>Flux of FeS at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FFeS20</t>
+  </si>
+  <si>
+    <t>Flux of FeS2 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FCaCO30</t>
+  </si>
+  <si>
+    <t>Flux of CaCO3 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Age0</t>
+  </si>
+  <si>
+    <t>mmol cm^-3</t>
+  </si>
+  <si>
+    <t>Concentration of Age at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FBSi0</t>
+  </si>
+  <si>
+    <t>Flux of BSi at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FNdnrPO40</t>
+  </si>
+  <si>
+    <t>Flux of NdnrPO4 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FNdrPO40</t>
+  </si>
+  <si>
+    <t>Flux of NdrPO4 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfMn_Ndnr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfMn_Ndnr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfMn_Ndr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfMn_Ndr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfFe_Ndnr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfFe_Ndnr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfFe_Ndr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfFe_Ndr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>O2BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of O2</t>
+  </si>
+  <si>
+    <t>NO3BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of NO3</t>
+  </si>
+  <si>
     <t>Mn0</t>
   </si>
   <si>
-    <t>mmol cm^-3</t>
-  </si>
-  <si>
     <t>Concentration of Mn at the TOP of sediment column</t>
   </si>
   <si>
     <t>FMn_ads_Mn0</t>
   </si>
   <si>
-    <t>mmol cm^-2 yr^-1</t>
-  </si>
-  <si>
     <t>Flux of Mn_ads_Mn at the  TOP of sediment column</t>
   </si>
   <si>
@@ -243,6 +348,30 @@
     <t>Flux of Fe_ads_Fe at the  TOP of sediment column</t>
   </si>
   <si>
+    <t>CH4BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of CH4</t>
+  </si>
+  <si>
+    <t>NO2BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of NO2</t>
+  </si>
+  <si>
+    <t>CaBW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of Ca</t>
+  </si>
+  <si>
+    <t>AlBW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of Al</t>
+  </si>
+  <si>
     <t>NH40</t>
   </si>
   <si>
@@ -255,6 +384,12 @@
     <t>Concentration of NH4_ads at the TOP of sediment column</t>
   </si>
   <si>
+    <t>SO4BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of SO4</t>
+  </si>
+  <si>
     <t>Ndnr0</t>
   </si>
   <si>
@@ -291,132 +426,6 @@
     <t>Flux of Ndr_ads_Fe at the  TOP of sediment column</t>
   </si>
   <si>
-    <t>FMnO20</t>
-  </si>
-  <si>
-    <t>Flux of MnO2 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFeOOH0</t>
-  </si>
-  <si>
-    <t>Flux of FeOOH at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FPOC0</t>
-  </si>
-  <si>
-    <t>Flux of POC at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFeS0</t>
-  </si>
-  <si>
-    <t>Flux of FeS at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFeS20</t>
-  </si>
-  <si>
-    <t>Flux of FeS2 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FCaCO30</t>
-  </si>
-  <si>
-    <t>Flux of CaCO3 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Age0</t>
-  </si>
-  <si>
-    <t>Concentration of Age at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FBSi0</t>
-  </si>
-  <si>
-    <t>Flux of BSi at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdnrPO40</t>
-  </si>
-  <si>
-    <t>Flux of NdnrPO4 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdrPO40</t>
-  </si>
-  <si>
-    <t>Flux of NdrPO4 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfMn_Ndnr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfMn_Ndnr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfMn_Ndr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfMn_Ndr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfFe_Ndnr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfFe_Ndnr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfFe_Ndr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfFe_Ndr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>O2BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of O2</t>
-  </si>
-  <si>
-    <t>NO3BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of NO3</t>
-  </si>
-  <si>
-    <t>CH4BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of CH4</t>
-  </si>
-  <si>
-    <t>NO2BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of NO2</t>
-  </si>
-  <si>
-    <t>CaBW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of Ca</t>
-  </si>
-  <si>
-    <t>AlBW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of Al</t>
-  </si>
-  <si>
-    <t>SO4BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of SO4</t>
-  </si>
-  <si>
     <t>TH4SiO4BW</t>
   </si>
   <si>
@@ -642,6 +651,36 @@
     <t>appears in RFeSH2S</t>
   </si>
   <si>
+    <t>kFeSdis</t>
+  </si>
+  <si>
+    <t>appears in RFeS_dis</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
+  </si>
+  <si>
+    <t>appears in RFeS_pre</t>
+  </si>
+  <si>
+    <t>kCaCO3dis0</t>
+  </si>
+  <si>
+    <t>appears in RCaCO3_dis</t>
+  </si>
+  <si>
+    <t>kCaCO3dis1</t>
+  </si>
+  <si>
+    <t>nCaCO3dis</t>
+  </si>
+  <si>
+    <t>kBSi_dis</t>
+  </si>
+  <si>
+    <t>appears in RBSi_dis</t>
+  </si>
+  <si>
     <t>DNdMn</t>
   </si>
   <si>
@@ -652,6 +691,12 @@
   </si>
   <si>
     <t>appears in RFeOx_Ndnr,RFeOx_Ndr</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre</t>
+  </si>
+  <si>
+    <t>appears in RNdnrPO4_pre,RNdrPO4_pre</t>
   </si>
 </sst>
 </file>
@@ -1003,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,1633 +1073,2054 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
         <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
         <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
         <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
         <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
         <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
         <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
         <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
         <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>108</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>128</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>130</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>136</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>152</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>156</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>158</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>160</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>162</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>168</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>174</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>176</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>178</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>180</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>186</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>196</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>198</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>198</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>201</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>203</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>205</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>207</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>209</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>217</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>219</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/OregonNd/model_config.OregonNd.parameter_template.xlsx
+++ b/examples/OregonNd/model_config.OregonNd.parameter_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>class</t>
   </si>
@@ -117,7 +117,7 @@
     <t>gridtran</t>
   </si>
   <si>
-    <t>return a non-uniform grid by transforming a uniform one, if the functions requires external constants, enter in the row underneath</t>
+    <t>grid transformation function</t>
   </si>
   <si>
     <t>porosity</t>
@@ -129,13 +129,13 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
+    <t>porosity as a function of depth</t>
   </si>
   <si>
     <t>phi_Inf</t>
   </si>
   <si>
-    <t>porosity at infinite sediment depth (normally where porosity stops changing). Needed to calculate burial velocities. If constant_porosity_profile = no, then phi_Inf should be consistent with the depth dependent porosity function</t>
+    <t>porosity at burial depth</t>
   </si>
   <si>
     <t>burial</t>
@@ -159,7 +159,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
+    <t>bioburbation coefficient as a function of depth</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -171,21 +171,24 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
-  </si>
-  <si>
-    <t>adsorption</t>
+    <t>bioirrigation coefficient as a function of depth</t>
+  </si>
+  <si>
+    <t>speciation</t>
   </si>
   <si>
     <t>KMn_ads_Fe</t>
   </si>
   <si>
-    <t>Adsorption constant</t>
+    <t>speciation constant</t>
   </si>
   <si>
     <t>KMn_ads_Mn</t>
   </si>
   <si>
+    <t>Cl</t>
+  </si>
+  <si>
     <t>KFe_ads_Fe</t>
   </si>
   <si>
@@ -252,57 +255,60 @@
     <t>Age0</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Age at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FBSi0</t>
+  </si>
+  <si>
+    <t>Flux of BSi at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FNdnrPO40</t>
+  </si>
+  <si>
+    <t>Flux of NdnrPO4 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FNdrPO40</t>
+  </si>
+  <si>
+    <t>Flux of NdrPO4 at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfMn_Ndnr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfMn_Ndnr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfMn_Ndr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfMn_Ndr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfFe_Ndnr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfFe_Ndnr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FSurfFe_Ndr0</t>
+  </si>
+  <si>
+    <t>Flux of SurfFe_Ndr at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>O2BW</t>
+  </si>
+  <si>
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of Age at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FBSi0</t>
-  </si>
-  <si>
-    <t>Flux of BSi at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdnrPO40</t>
-  </si>
-  <si>
-    <t>Flux of NdnrPO4 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdrPO40</t>
-  </si>
-  <si>
-    <t>Flux of NdrPO4 at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfMn_Ndnr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfMn_Ndnr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfMn_Ndr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfMn_Ndr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfFe_Ndnr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfFe_Ndnr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FSurfFe_Ndr0</t>
-  </si>
-  <si>
-    <t>Flux of SurfFe_Ndr at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>O2BW</t>
-  </si>
-  <si>
     <t>Bottom water concentration of O2</t>
   </si>
   <si>
@@ -312,40 +318,28 @@
     <t>Bottom water concentration of NO3</t>
   </si>
   <si>
-    <t>Mn0</t>
-  </si>
-  <si>
-    <t>Concentration of Mn at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FMn_ads_Mn0</t>
-  </si>
-  <si>
-    <t>Flux of Mn_ads_Mn at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FMn_ads_Fe0</t>
-  </si>
-  <si>
-    <t>Flux of Mn_ads_Fe at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Fe0</t>
-  </si>
-  <si>
-    <t>Concentration of Fe at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFe_ads_Mn0</t>
-  </si>
-  <si>
-    <t>Flux of Fe_ads_Mn at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FFe_ads_Fe0</t>
-  </si>
-  <si>
-    <t>Flux of Fe_ads_Fe at the  TOP of sediment column</t>
+    <t>TMn_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TMn_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FTMn_ads0</t>
+  </si>
+  <si>
+    <t>Flux of TMn_ads at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TFe_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FTFe_ads0</t>
+  </si>
+  <si>
+    <t>Flux of TFe_ads at the  TOP of sediment column</t>
   </si>
   <si>
     <t>CH4BW</t>
@@ -366,22 +360,22 @@
     <t>Bottom water concentration of Ca</t>
   </si>
   <si>
-    <t>AlBW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of Al</t>
-  </si>
-  <si>
-    <t>NH40</t>
-  </si>
-  <si>
-    <t>Concentration of NH4 at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>NH4_ads0</t>
-  </si>
-  <si>
-    <t>Concentration of NH4_ads at the TOP of sediment column</t>
+    <t>Al_disBW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of Al_dis</t>
+  </si>
+  <si>
+    <t>TNH4_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TNH4_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>TNH4_ads0</t>
+  </si>
+  <si>
+    <t>Concentration of TNH4_ads at the TOP of sediment column</t>
   </si>
   <si>
     <t>SO4BW</t>
@@ -390,40 +384,28 @@
     <t>Bottom water concentration of SO4</t>
   </si>
   <si>
-    <t>Ndnr0</t>
-  </si>
-  <si>
-    <t>Concentration of Ndnr at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdnr_ads_Mn0</t>
-  </si>
-  <si>
-    <t>Flux of Ndnr_ads_Mn at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdnr_ads_Fe0</t>
-  </si>
-  <si>
-    <t>Flux of Ndnr_ads_Fe at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>Ndr0</t>
-  </si>
-  <si>
-    <t>Concentration of Ndr at the TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdr_ads_Mn0</t>
-  </si>
-  <si>
-    <t>Flux of Ndr_ads_Mn at the  TOP of sediment column</t>
-  </si>
-  <si>
-    <t>FNdr_ads_Fe0</t>
-  </si>
-  <si>
-    <t>Flux of Ndr_ads_Fe at the  TOP of sediment column</t>
+    <t>TNdnr_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TNdnr_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FTNdnr_ads0</t>
+  </si>
+  <si>
+    <t>Flux of TNdnr_ads at the  TOP of sediment column</t>
+  </si>
+  <si>
+    <t>TNdr_dis0</t>
+  </si>
+  <si>
+    <t>Concentration of TNdr_dis at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>FTNdr_ads0</t>
+  </si>
+  <si>
+    <t>Flux of TNdr_ads at the  TOP of sediment column</t>
   </si>
   <si>
     <t>TH4SiO4BW</t>
@@ -466,12 +448,6 @@
   </si>
   <si>
     <t>Reaction</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>appears in Fe_free,Fe_OH_aq,Fe_OH_2_aq,FeHCO3_aq,FeCO3_aq,Fe_CO3_2_aq,FeSO4_aq,FeCl_aq,FeS_aq,Ndnr_free,NdnrCO3_aq,Ndnr_CO3_2_aq,NdnrHCO3_aq,NdnrCl_aq,NdnrSO4_aq,NdnrOH_aq,NdnrH3SiO4_aq,Ndnr_H3SiO4_2_aq,Ndr_free,NdrCO3_aq,Ndr_CO3_2_aq,NdrHCO3_aq,NdrCl_aq,NdrSO4_aq,NdrOH_aq,NdrH3SiO4_aq,Ndr_H3SiO4_2_aq,Mn_free,Mn_OH_aq,Mn_OH_2_aq,MnHCO3_aq,MnCO3_aq,MnSO4_aq,MnCl_aq</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1048,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,20 +1440,18 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
       <c r="D21"/>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1485,20 +1459,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1506,20 +1480,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1527,20 +1501,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1548,20 +1522,20 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1569,20 +1543,20 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1590,20 +1564,20 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1611,20 +1585,20 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1632,20 +1606,20 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1653,20 +1627,20 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1674,20 +1648,20 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1695,20 +1669,20 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1716,20 +1690,20 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1737,20 +1711,20 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1758,20 +1732,20 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1779,20 +1753,20 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1800,17 +1774,17 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
@@ -1821,7 +1795,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1831,7 +1805,7 @@
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
@@ -1842,7 +1816,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1852,7 +1826,7 @@
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -1863,7 +1837,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1873,7 +1847,7 @@
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
         <v>100</v>
@@ -1884,7 +1858,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1894,7 +1868,7 @@
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
         <v>102</v>
@@ -1905,7 +1879,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1915,7 +1889,7 @@
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
         <v>104</v>
@@ -1926,7 +1900,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1936,7 +1910,7 @@
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
         <v>106</v>
@@ -1947,7 +1921,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1957,7 +1931,7 @@
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>108</v>
@@ -1968,7 +1942,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -1978,7 +1952,7 @@
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>110</v>
@@ -1989,7 +1963,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1999,7 +1973,7 @@
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
         <v>112</v>
@@ -2010,7 +1984,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2020,7 +1994,7 @@
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
         <v>114</v>
@@ -2031,7 +2005,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2041,7 +2015,7 @@
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
         <v>116</v>
@@ -2052,7 +2026,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2062,7 +2036,7 @@
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
         <v>118</v>
@@ -2073,7 +2047,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2083,7 +2057,7 @@
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
         <v>120</v>
@@ -2094,7 +2068,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2104,7 +2078,7 @@
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
         <v>122</v>
@@ -2115,7 +2089,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2125,7 +2099,7 @@
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
         <v>124</v>
@@ -2136,7 +2110,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2146,7 +2120,7 @@
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s">
         <v>126</v>
@@ -2157,7 +2131,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2167,7 +2141,7 @@
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
         <v>128</v>
@@ -2178,7 +2152,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2188,7 +2162,7 @@
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
         <v>130</v>
@@ -2199,7 +2173,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2209,7 +2183,7 @@
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
         <v>132</v>
@@ -2220,7 +2194,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2230,7 +2204,7 @@
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
         <v>134</v>
@@ -2241,7 +2215,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2251,7 +2225,7 @@
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
         <v>136</v>
@@ -2262,7 +2236,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2272,10 +2246,10 @@
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2283,20 +2257,18 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D60"/>
-      <c r="E60" t="s">
-        <v>75</v>
-      </c>
+      <c r="E60"/>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2304,20 +2276,18 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D61"/>
-      <c r="E61" t="s">
-        <v>75</v>
-      </c>
+      <c r="E61"/>
       <c r="F61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2325,20 +2295,18 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D62"/>
-      <c r="E62" t="s">
-        <v>144</v>
-      </c>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2346,7 +2314,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2365,7 +2333,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2384,7 +2352,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2403,7 +2371,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2422,7 +2390,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2441,7 +2409,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2452,7 +2420,7 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2460,18 +2428,18 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2479,18 +2447,18 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2498,18 +2466,18 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2517,13 +2485,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2536,18 +2504,18 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2555,7 +2523,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -2574,7 +2542,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -2593,7 +2561,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -2612,7 +2580,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -2631,7 +2599,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -2650,7 +2618,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -2669,7 +2637,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -2688,7 +2656,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -2707,7 +2675,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -2726,7 +2694,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -2745,7 +2713,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -2764,7 +2732,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -2783,7 +2751,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -2794,7 +2762,7 @@
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2802,18 +2770,18 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2821,18 +2789,18 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2840,18 +2808,18 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2859,18 +2827,18 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2878,7 +2846,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -2897,7 +2865,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -2916,7 +2884,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -2935,7 +2903,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -2946,7 +2914,7 @@
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -2954,18 +2922,18 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2973,18 +2941,18 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -2992,18 +2960,18 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3011,13 +2979,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
@@ -3030,96 +2998,20 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100" t="s">
-        <v>217</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101" t="s">
-        <v>219</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102" t="s">
-        <v>221</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="s">
-        <v>222</v>
-      </c>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103" t="s">
-        <v>223</v>
-      </c>
-      <c r="G103">
         <v>1</v>
       </c>
     </row>
